--- a/docs/Projektplan.xlsx
+++ b/docs/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B4AC88-B790-4BE3-9918-F75E76E3B300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD023B0-5C1B-48FB-B0AB-89645B37AA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,9 +278,9 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d\.m\.yy;@"/>
-    <numFmt numFmtId="169" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="d/\ mmm\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="169" formatCode="d/\ mmm\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -1295,22 +1295,43 @@
     <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -1323,32 +1344,11 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="35" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1991,7 +1991,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2004,7 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="12" width="2.5703125" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="20" width="10.7109375" customWidth="1"/>
     <col min="25" max="26" width="10.28515625"/>
   </cols>
@@ -2037,103 +2037,103 @@
       <c r="B3" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="93" cm="1">
+      <c r="D3" s="89"/>
+      <c r="E3" s="92" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">Heute-3</f>
-        <v>44240</v>
-      </c>
-      <c r="F3" s="93"/>
+        <v>44241</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="86">
         <f ca="1">I5</f>
-        <v>44235</v>
-      </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+        <v>44242</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="86">
         <f ca="1">P5</f>
-        <v>44242</v>
-      </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
+        <v>44249</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="75">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44235</v>
+        <v>44242</v>
       </c>
       <c r="J5" s="76">
         <f ca="1">I5+1</f>
-        <v>44236</v>
+        <v>44243</v>
       </c>
       <c r="K5" s="76">
         <f t="shared" ref="K5:T5" ca="1" si="0">J5+1</f>
-        <v>44237</v>
+        <v>44244</v>
       </c>
       <c r="L5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44238</v>
+        <v>44245</v>
       </c>
       <c r="M5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44239</v>
+        <v>44246</v>
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44240</v>
+        <v>44247</v>
       </c>
       <c r="O5" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44241</v>
+        <v>44248</v>
       </c>
       <c r="P5" s="75">
         <f ca="1">O5+1</f>
-        <v>44242</v>
+        <v>44249</v>
       </c>
       <c r="Q5" s="76">
         <f ca="1">P5+1</f>
-        <v>44243</v>
+        <v>44250</v>
       </c>
       <c r="R5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="S5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="T5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44246</v>
+        <v>44253</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2634,17 +2634,17 @@
     </row>
     <row r="20" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="91">
+      <c r="D20" s="79"/>
+      <c r="E20" s="84">
         <v>44244</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="84">
         <v>44245</v>
       </c>
       <c r="G20" s="14"/>
@@ -2664,17 +2664,17 @@
     </row>
     <row r="21" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="92">
+      <c r="D21" s="78"/>
+      <c r="E21" s="85">
         <v>44244</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="85">
         <v>44244</v>
       </c>
       <c r="G21" s="14"/>
@@ -2694,17 +2694,17 @@
     </row>
     <row r="22" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="92">
+      <c r="D22" s="78"/>
+      <c r="E22" s="85">
         <v>44244</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="85">
         <v>44244</v>
       </c>
       <c r="G22" s="14"/>
@@ -2724,17 +2724,17 @@
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="92">
+      <c r="D23" s="78"/>
+      <c r="E23" s="85">
         <v>44244</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="85">
         <v>44244</v>
       </c>
       <c r="G23" s="14"/>
@@ -2754,17 +2754,17 @@
     </row>
     <row r="24" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="92">
+      <c r="D24" s="78"/>
+      <c r="E24" s="85">
         <v>44245</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="85">
         <v>44245</v>
       </c>
       <c r="G24" s="14"/>
@@ -2784,17 +2784,17 @@
     </row>
     <row r="25" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="92">
+      <c r="D25" s="78"/>
+      <c r="E25" s="85">
         <v>44245</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="85">
         <v>44245</v>
       </c>
       <c r="G25" s="14"/>
@@ -2880,12 +2880,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P4:T4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">

--- a/docs/Projektplan.xlsx
+++ b/docs/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD023B0-5C1B-48FB-B0AB-89645B37AA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD187C-CA4B-4236-93D7-EAFAE558E7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Thomas Schumann, Nico Gerasch, Benjamin Salamon</t>
+  </si>
+  <si>
+    <t>Benjamin, Nico, Thomas</t>
   </si>
 </sst>
 </file>
@@ -1991,21 +1994,23 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="20" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
     <col min="25" max="26" width="10.28515625"/>
   </cols>
   <sheetData>
@@ -2042,8 +2047,8 @@
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="92" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">Heute-3</f>
-        <v>44241</v>
+        <f t="array" aca="1" ref="E3" ca="1">Heute-4</f>
+        <v>44240</v>
       </c>
       <c r="F3" s="92"/>
     </row>
@@ -2060,7 +2065,7 @@
       </c>
       <c r="I4" s="86">
         <f ca="1">I5</f>
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
@@ -2070,7 +2075,7 @@
       <c r="O4" s="93"/>
       <c r="P4" s="86">
         <f ca="1">P5</f>
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="Q4" s="87"/>
       <c r="R4" s="87"/>
@@ -2089,51 +2094,51 @@
       <c r="G5" s="91"/>
       <c r="I5" s="75">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="J5" s="76">
         <f ca="1">I5+1</f>
-        <v>44243</v>
+        <v>44236</v>
       </c>
       <c r="K5" s="76">
         <f t="shared" ref="K5:T5" ca="1" si="0">J5+1</f>
-        <v>44244</v>
+        <v>44237</v>
       </c>
       <c r="L5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44245</v>
+        <v>44238</v>
       </c>
       <c r="M5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44247</v>
+        <v>44240</v>
       </c>
       <c r="O5" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44248</v>
+        <v>44241</v>
       </c>
       <c r="P5" s="75">
         <f ca="1">O5+1</f>
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="Q5" s="76">
         <f ca="1">P5+1</f>
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="R5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="S5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44252</v>
+        <v>44245</v>
       </c>
       <c r="T5" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44253</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2264,26 +2269,20 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>51</v>
-      </c>
+      <c r="C9" s="52"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="65">
-        <v>44240</v>
-      </c>
-      <c r="F9" s="65">
-        <v>44241</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="H9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="30"/>
@@ -2338,20 +2337,14 @@
       <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>52</v>
-      </c>
+      <c r="C11" s="54"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="67">
-        <v>44241</v>
-      </c>
-      <c r="F11" s="67">
-        <v>44244</v>
-      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="H11" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -2409,10 +2402,10 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="68">
+        <v>44242</v>
+      </c>
+      <c r="F13" s="68">
         <v>44243</v>
-      </c>
-      <c r="F13" s="68">
-        <v>44244</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
@@ -2465,27 +2458,21 @@
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="C15" s="56"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="69">
-        <v>44241</v>
-      </c>
-      <c r="F15" s="70">
-        <v>44244</v>
-      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -2506,7 +2493,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="71">
@@ -2546,12 +2533,12 @@
         <v>44241</v>
       </c>
       <c r="F17" s="71">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -2579,12 +2566,12 @@
         <v>44241</v>
       </c>
       <c r="F18" s="71">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -2609,15 +2596,15 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="71">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="F19" s="71">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
@@ -2632,21 +2619,15 @@
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>51</v>
-      </c>
+      <c r="C20" s="81"/>
       <c r="D20" s="79"/>
-      <c r="E20" s="84">
-        <v>44244</v>
-      </c>
-      <c r="F20" s="84">
-        <v>44245</v>
-      </c>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="30"/>

--- a/docs/Projektplan.xlsx
+++ b/docs/Projektplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD187C-CA4B-4236-93D7-EAFAE558E7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08609344-6B23-44CA-9DDD-1C3F12D7BDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="0" windowWidth="24705" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -222,15 +222,9 @@
     <t>Entwicklung Hilfsfunktionen</t>
   </si>
   <si>
-    <t>Entwurf Prognosefunktion</t>
-  </si>
-  <si>
     <t>Entwicklung Prognosefunktion</t>
   </si>
   <si>
-    <t xml:space="preserve">   Entwicklung Hilfsfunktionen</t>
-  </si>
-  <si>
     <t>Entwurf Rest-Design</t>
   </si>
   <si>
@@ -268,6 +262,9 @@
   </si>
   <si>
     <t>Benjamin, Nico, Thomas</t>
+  </si>
+  <si>
+    <t>Ermittlung geeigneter Prognoseverfahren</t>
   </si>
 </sst>
 </file>
@@ -275,15 +272,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\.m\.yy;@"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="d/\ mmm\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d\.m\.yy;@"/>
+    <numFmt numFmtId="170" formatCode="d"/>
+    <numFmt numFmtId="171" formatCode="d/\ mmm\ yyyy"/>
+    <numFmt numFmtId="172" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -1023,7 +1020,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1032,10 +1029,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -1045,9 +1042,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1223,9 +1220,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,49 +1256,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="35" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,16 +1319,16 @@
     <xf numFmtId="0" fontId="5" fillId="44" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="44" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -1350,8 +1344,11 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1994,7 +1991,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2039,104 +2036,105 @@
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">Heute-4</f>
+      <c r="D3" s="88"/>
+      <c r="E3" s="91" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">Heute-5</f>
         <v>44240</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>44235</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="86">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>44242</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="I5" s="75">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="I5" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44235</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="75">
         <f ca="1">I5+1</f>
         <v>44236</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="75">
         <f t="shared" ref="K5:T5" ca="1" si="0">J5+1</f>
         <v>44237</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44238</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44239</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44240</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44241</v>
       </c>
-      <c r="P5" s="75">
+      <c r="P5" s="74">
         <f ca="1">O5+1</f>
         <v>44242</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="75">
         <f ca="1">P5+1</f>
         <v>44243</v>
       </c>
-      <c r="R5" s="76">
+      <c r="R5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44244</v>
       </c>
-      <c r="S5" s="76">
+      <c r="S5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44245</v>
       </c>
-      <c r="T5" s="76">
+      <c r="T5" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44246</v>
       </c>
@@ -2164,51 +2162,51 @@
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:T6" ca="1" si="1">LEFT(TEXT(I5,"TTT"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="M6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="R6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>T</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,14 +2239,14 @@
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>51</v>
+      <c r="C8" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>44240</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="63">
         <v>44240</v>
       </c>
       <c r="G8" s="14"/>
@@ -2276,10 +2274,10 @@
       <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="H9" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2299,17 +2297,17 @@
     </row>
     <row r="10" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>51</v>
+      <c r="C10" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="66">
+      <c r="E10" s="65">
         <v>44240</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <v>44241</v>
       </c>
       <c r="G10" s="14"/>
@@ -2330,17 +2328,17 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2361,18 +2359,18 @@
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
-      <c r="B12" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>52</v>
+      <c r="B12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
+        <v>44240</v>
+      </c>
+      <c r="F12" s="67">
         <v>44241</v>
-      </c>
-      <c r="F12" s="68">
-        <v>44242</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
@@ -2394,23 +2392,23 @@
     </row>
     <row r="13" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>52</v>
+      <c r="B13" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="68">
-        <v>44242</v>
-      </c>
-      <c r="F13" s="68">
+      <c r="E13" s="67">
+        <v>44241</v>
+      </c>
+      <c r="F13" s="67">
         <v>44243</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -2427,17 +2425,17 @@
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>53</v>
+      <c r="B14" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>44241</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <v>44244</v>
       </c>
       <c r="G14" s="14"/>
@@ -2465,10 +2463,10 @@
       <c r="B15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2489,17 +2487,17 @@
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="B16" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>58</v>
+      <c r="B16" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="71">
+      <c r="E16" s="70">
         <v>44241</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="70">
         <v>44241</v>
       </c>
       <c r="G16" s="14"/>
@@ -2522,17 +2520,17 @@
     </row>
     <row r="17" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>55</v>
+      <c r="B17" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="71">
+      <c r="E17" s="70">
         <v>44241</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <v>44243</v>
       </c>
       <c r="G17" s="14"/>
@@ -2555,17 +2553,17 @@
     </row>
     <row r="18" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>55</v>
+      <c r="C18" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <v>44241</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="70">
         <v>44243</v>
       </c>
       <c r="G18" s="14"/>
@@ -2588,17 +2586,17 @@
     </row>
     <row r="19" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>55</v>
+      <c r="B19" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="71">
+      <c r="E19" s="70">
         <v>44243</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="70">
         <v>44243</v>
       </c>
       <c r="G19" s="14"/>
@@ -2621,13 +2619,13 @@
     </row>
     <row r="20" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
+      <c r="B20" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="80"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="30"/>
@@ -2645,17 +2643,17 @@
     </row>
     <row r="21" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="85">
+      <c r="C21" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="77"/>
+      <c r="E21" s="84">
         <v>44244</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="84">
         <v>44244</v>
       </c>
       <c r="G21" s="14"/>
@@ -2675,17 +2673,17 @@
     </row>
     <row r="22" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="85">
+      <c r="B22" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="77"/>
+      <c r="E22" s="84">
         <v>44244</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="84">
         <v>44244</v>
       </c>
       <c r="G22" s="14"/>
@@ -2705,17 +2703,17 @@
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="85">
+      <c r="C23" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="84">
         <v>44244</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="84">
         <v>44244</v>
       </c>
       <c r="G23" s="14"/>
@@ -2735,17 +2733,17 @@
     </row>
     <row r="24" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="85">
+      <c r="C24" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="84">
         <v>44245</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="84">
         <v>44245</v>
       </c>
       <c r="G24" s="14"/>
@@ -2765,17 +2763,17 @@
     </row>
     <row r="25" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="85">
+      <c r="D25" s="77"/>
+      <c r="E25" s="84">
         <v>44245</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="84">
         <v>44245</v>
       </c>
       <c r="G25" s="14"/>
@@ -2797,11 +2795,11 @@
       <c r="A26" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2829,8 +2827,8 @@
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29" t="str">
         <f t="shared" si="2"/>
@@ -2860,13 +2858,14 @@
       <c r="C30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">
